--- a/legendre_out/DATA/p1/a2/p1_a2_legendrePointsAtSingleEnergy.xlsx
+++ b/legendre_out/DATA/p1/a2/p1_a2_legendrePointsAtSingleEnergy.xlsx
@@ -386,7 +386,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000100845230525786</v>
+        <v>0.0001028501448964866</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>0.0174532925199433</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0001008441389733623</v>
+        <v>0.0001028473732451784</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>0.03490658503988659</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001008408656459799</v>
+        <v>0.0001028390616680839</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>0.05235987755982989</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0001008354145316839</v>
+        <v>0.0001028252202915796</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>0.06981317007977318</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001008277922718173</v>
+        <v>0.0001028058659792506</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>0.08726646259971647</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001008180081529298</v>
+        <v>0.0001027810223113451</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>0.1047197551196598</v>
       </c>
       <c r="C8" t="n">
-        <v>0.000100806074095463</v>
+        <v>0.0001027507195560457</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>0.1221730476396031</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001007920046392277</v>
+        <v>0.000102714994632592</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>0.1396263401595464</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001007758169256891</v>
+        <v>0.0001026738910663</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>0.1570796326794897</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001007575306770826</v>
+        <v>0.0001026274589355339</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>0.1745329251994329</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0001007371681723852</v>
+        <v>0.0001025757548106926</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>0.1919862177193762</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0001007147542201725</v>
+        <v>0.0001025188416852879</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>0.2094395102393196</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0001006903161283926</v>
+        <v>0.0001024567888991962</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>0.2268928027592629</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0001006638836710959</v>
+        <v>0.000102389672054179</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>0.2443460952792061</v>
       </c>
       <c r="C16" t="n">
-        <v>0.00010063548905216</v>
+        <v>0.0001023175729217733</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>0.2617993877991494</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0001006051668660542</v>
+        <v>0.0001022405793436659</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>0.2792526803190927</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0001005729540556916</v>
+        <v>0.0001021587851246719</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>0.296705972839036</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0001005388898674195</v>
+        <v>0.0001020722899184475</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>0.3141592653589793</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0001005030158032041</v>
+        <v>0.0001019811991060781</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>0.3316125578789226</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0001004653755700668</v>
+        <v>0.0001018856236676871</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>0.3490658503988659</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0001004260150268337</v>
+        <v>0.0001017856800472238</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>0.3665191429188092</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0001003849821282635</v>
+        <v>0.0001016814900105946</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>0.3839724354387525</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0001003423268666225</v>
+        <v>0.00010157318049731</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>0.4014257279586958</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0001002981012107766</v>
+        <v>0.0001014608834658281</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>0.4188790204786391</v>
       </c>
       <c r="C26" t="n">
-        <v>0.000100252359042875</v>
+        <v>0.0001013447357327837</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>0.4363323129985824</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0001002051560927031</v>
+        <v>0.0001012248788062984</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>0.4537856055185257</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0001001565498697848</v>
+        <v>0.0001011014587135744</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>0.471238898038469</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0001001065995933154</v>
+        <v>0.0001009746258229835</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>0.4886921905584123</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0001000553661200125</v>
+        <v>0.0001008445346608656</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>0.5061454830783556</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0001000029118699715</v>
+        <v>0.0001007113437232628</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>0.5235987755982988</v>
       </c>
       <c r="C32" t="n">
-        <v>9.994930075061609e-05</v>
+        <v>0.0001005752152828161</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>0.5410520681182421</v>
       </c>
       <c r="C33" t="n">
-        <v>9.989459807883704e-05</v>
+        <v>0.0001004363151910612</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>0.5585053606381855</v>
       </c>
       <c r="C34" t="n">
-        <v>9.983887050141362e-05</v>
+        <v>0.0001002948126763639</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>0.5759586531581288</v>
       </c>
       <c r="C35" t="n">
-        <v>9.978218591381473e-05</v>
+        <v>0.0001001508801377417</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>0.5934119456780721</v>
       </c>
       <c r="C36" t="n">
-        <v>9.972461337747876e-05</v>
+        <v>0.0001000046929348218</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>0.6108652381980153</v>
       </c>
       <c r="C37" t="n">
-        <v>9.966622303567289e-05</v>
+        <v>9.985642917419239e-05</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>0.6283185307179586</v>
       </c>
       <c r="C38" t="n">
-        <v>9.960708602803425e-05</v>
+        <v>9.970626949240765e-05</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>0.6457718232379019</v>
       </c>
       <c r="C39" t="n">
-        <v>9.95472744038973e-05</v>
+        <v>9.955439683590946e-05</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>0.6632251157578453</v>
       </c>
       <c r="C40" t="n">
-        <v>9.948686103451278e-05</v>
+        <v>9.940099623813558e-05</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>0.6806784082777885</v>
       </c>
       <c r="C41" t="n">
-        <v>9.94259195242653e-05</v>
+        <v>9.924625459408486e-05</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>0.6981317007977318</v>
       </c>
       <c r="C42" t="n">
-        <v>9.93645241209978e-05</v>
+        <v>9.909036043261445e-05</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>0.7155849933176751</v>
       </c>
       <c r="C43" t="n">
-        <v>9.930274962555191e-05</v>
+        <v>9.893350368674643e-05</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>0.7330382858376184</v>
       </c>
       <c r="C44" t="n">
-        <v>9.924067130063469e-05</v>
+        <v>9.877587546226372e-05</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>0.7504915783575618</v>
       </c>
       <c r="C45" t="n">
-        <v>9.917836477912264e-05</v>
+        <v>9.861766780487709e-05</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>0.767944870877505</v>
       </c>
       <c r="C46" t="n">
-        <v>9.911590597191464e-05</v>
+        <v>9.845907346624706e-05</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>0.7853981633974483</v>
       </c>
       <c r="C47" t="n">
-        <v>9.905337097544621e-05</v>
+        <v>9.830028566914562e-05</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>0.8028514559173916</v>
       </c>
       <c r="C48" t="n">
-        <v>9.899083597897779e-05</v>
+        <v>9.814149787204419e-05</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>0.8203047484373349</v>
       </c>
       <c r="C49" t="n">
-        <v>9.892837717176977e-05</v>
+        <v>9.798290353341414e-05</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>0.8377580409572782</v>
       </c>
       <c r="C50" t="n">
-        <v>9.886607065025772e-05</v>
+        <v>9.782469587602751e-05</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>0.8552113334772214</v>
       </c>
       <c r="C51" t="n">
-        <v>9.880399232534052e-05</v>
+        <v>9.766706765154482e-05</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>0.8726646259971648</v>
       </c>
       <c r="C52" t="n">
-        <v>9.874221782989462e-05</v>
+        <v>9.75102109056768e-05</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>0.8901179185171081</v>
       </c>
       <c r="C53" t="n">
-        <v>9.868082242662712e-05</v>
+        <v>9.735431674420637e-05</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>0.9075712110370514</v>
       </c>
       <c r="C54" t="n">
-        <v>9.861988091637965e-05</v>
+        <v>9.719957510015566e-05</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>0.9250245035569946</v>
       </c>
       <c r="C55" t="n">
-        <v>9.855946754699511e-05</v>
+        <v>9.704617450238179e-05</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>0.9424777960769379</v>
       </c>
       <c r="C56" t="n">
-        <v>9.849965592285816e-05</v>
+        <v>9.68943018458836e-05</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>0.9599310885968813</v>
       </c>
       <c r="C57" t="n">
-        <v>9.844051891521954e-05</v>
+        <v>9.674414216409885e-05</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>0.9773843811168246</v>
       </c>
       <c r="C58" t="n">
-        <v>9.838212857341366e-05</v>
+        <v>9.659587840346947e-05</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>0.9948376736367679</v>
       </c>
       <c r="C59" t="n">
-        <v>9.83245560370777e-05</v>
+        <v>9.644969120054951e-05</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>1.012290966156711</v>
       </c>
       <c r="C60" t="n">
-        <v>9.826787144947881e-05</v>
+        <v>9.63057586619273e-05</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>1.029744258676655</v>
       </c>
       <c r="C61" t="n">
-        <v>9.821214387205537e-05</v>
+        <v>9.616425614723006e-05</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>1.047197551196598</v>
       </c>
       <c r="C62" t="n">
-        <v>9.815744120027632e-05</v>
+        <v>9.602535605547515e-05</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>1.064650843716541</v>
       </c>
       <c r="C63" t="n">
-        <v>9.810383008092092e-05</v>
+        <v>9.588922761502845e-05</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>1.082104136236484</v>
       </c>
       <c r="C64" t="n">
-        <v>9.805137583087993e-05</v>
+        <v>9.575603667742566e-05</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>1.099557428756428</v>
       </c>
       <c r="C65" t="n">
-        <v>9.800014235757707e-05</v>
+        <v>9.562594551530778e-05</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>1.117010721276371</v>
       </c>
       <c r="C66" t="n">
-        <v>9.795019208110765e-05</v>
+        <v>9.549911262471683e-05</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>1.134464013796314</v>
       </c>
       <c r="C67" t="n">
-        <v>9.790158585818931e-05</v>
+        <v>9.537569253199288e-05</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>1.151917306316258</v>
       </c>
       <c r="C68" t="n">
-        <v>9.785438290801744e-05</v>
+        <v>9.525583560550753e-05</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>1.169370598836201</v>
       </c>
       <c r="C69" t="n">
-        <v>9.780864074011579e-05</v>
+        <v>9.513968787246312e-05</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>1.186823891356144</v>
       </c>
       <c r="C70" t="n">
-        <v>9.776441508426989e-05</v>
+        <v>9.502739084098121e-05</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>1.204277183876087</v>
       </c>
       <c r="C71" t="n">
-        <v>9.772175982262895e-05</v>
+        <v>9.491908132769662e-05</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>1.221730476396031</v>
       </c>
       <c r="C72" t="n">
-        <v>9.768072692405876e-05</v>
+        <v>9.481489129106747e-05</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>1.239183768915974</v>
       </c>
       <c r="C73" t="n">
-        <v>9.764136638082556e-05</v>
+        <v>9.471494767060418e-05</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>1.256637061435917</v>
       </c>
       <c r="C74" t="n">
-        <v>9.760372614768828e-05</v>
+        <v>9.461937223221312e-05</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>1.274090353955861</v>
       </c>
       <c r="C75" t="n">
-        <v>9.756785208347295e-05</v>
+        <v>9.452828141984371e-05</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>1.291543646475804</v>
       </c>
       <c r="C76" t="n">
-        <v>9.753378789520085e-05</v>
+        <v>9.444178621361938e-05</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>1.308996938995747</v>
       </c>
       <c r="C77" t="n">
-        <v>9.75015750848382e-05</v>
+        <v>9.435999199462531e-05</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>1.326450231515691</v>
       </c>
       <c r="C78" t="n">
-        <v>9.747125289873242e-05</v>
+        <v>9.428299841651795e-05</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>1.343903524035634</v>
       </c>
       <c r="C79" t="n">
-        <v>9.744285827979652e-05</v>
+        <v>9.421089928411225e-05</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>1.361356816555577</v>
       </c>
       <c r="C80" t="n">
-        <v>9.74164258224998e-05</v>
+        <v>9.414378243909502e-05</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>1.37881010907552</v>
       </c>
       <c r="C81" t="n">
-        <v>9.739198773071986e-05</v>
+        <v>9.408172965300338e-05</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>1.396263401595464</v>
       </c>
       <c r="C82" t="n">
-        <v>9.736957377850717e-05</v>
+        <v>9.402481652759865e-05</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>1.413716694115407</v>
       </c>
       <c r="C83" t="n">
-        <v>9.734921127380987e-05</v>
+        <v>9.397311240275738e-05</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>1.43116998663535</v>
       </c>
       <c r="C84" t="n">
-        <v>9.733092502520333e-05</v>
+        <v>9.392668027199125e-05</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>1.448623279155294</v>
       </c>
       <c r="C85" t="n">
-        <v>9.73147373116647e-05</v>
+        <v>9.388557670569928e-05</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>1.466076571675237</v>
       </c>
       <c r="C86" t="n">
-        <v>9.73006678554294e-05</v>
+        <v>9.38498517822455e-05</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>1.48352986419518</v>
       </c>
       <c r="C87" t="n">
-        <v>9.728873379796263e-05</v>
+        <v>9.381954902694612e-05</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>1.500983156715124</v>
       </c>
       <c r="C88" t="n">
-        <v>9.72789496790751e-05</v>
+        <v>9.379470535904068e-05</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>1.518436449235067</v>
       </c>
       <c r="C89" t="n">
-        <v>9.727132741920855e-05</v>
+        <v>9.377535104671167e-05</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>1.53588974175501</v>
       </c>
       <c r="C90" t="n">
-        <v>9.726587630491252e-05</v>
+        <v>9.376150967020735e-05</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>1.553343034274953</v>
       </c>
       <c r="C91" t="n">
-        <v>9.726260297753008e-05</v>
+        <v>9.375319809311289e-05</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>1.570796326794897</v>
       </c>
       <c r="C92" t="n">
-        <v>9.726151142510644e-05</v>
+        <v>9.375042644180467e-05</v>
       </c>
     </row>
   </sheetData>
